--- a/Tutorials/Example gas.xlsx
+++ b/Tutorials/Example gas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidsb\python-subsidence\PySub\Tutorials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365tno-my.sharepoint.com/personal/bart_davids_tno_nl/Documents/Documents/PySub/Tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E10CAF-04EF-432A-BC25-6F6109E93331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{19E10CAF-04EF-432A-BC25-6F6109E93331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE27515-73DF-46CB-B869-359049AA1A80}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{555B1425-0405-477B-A81F-DC1674E6CB4A}"/>
+    <workbookView xWindow="27912" yWindow="2484" windowWidth="17280" windowHeight="10044" firstSheet="2" activeTab="4" xr2:uid="{555B1425-0405-477B-A81F-DC1674E6CB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Model parameters" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Reference stress rate (Pa/year)</t>
-  </si>
-  <si>
     <t>Lower error (m)</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>.\Shapefiles\Een.shp</t>
+  </si>
+  <si>
+    <t>Reference stress rate (bar/year)</t>
   </si>
 </sst>
 </file>
@@ -543,20 +543,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B04BB3-B26D-4DD4-818B-00CE2A287B6F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -573,13 +573,13 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -629,24 +629,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A316F1A6-ED4E-4962-9A52-869AB762729B}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -657,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -666,19 +666,19 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
         <v>27</v>
@@ -687,12 +687,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>6000</v>
@@ -730,12 +730,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>5000</v>
@@ -773,12 +773,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>6500</v>
@@ -831,7 +831,7 @@
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -845,13 +845,13 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -996,7 +996,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1160,11 +1160,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B3CA5E-794D-445C-AECE-934CB5762146}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>567600</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1210,15 +1212,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1232,18 +1234,18 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4">
         <v>32966</v>
@@ -1265,9 +1267,9 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4">
         <v>33334</v>
@@ -1289,9 +1291,9 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4">
         <v>34069</v>
@@ -1313,9 +1315,9 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4">
         <v>34802</v>
@@ -1337,7 +1339,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1456,7 +1458,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1493,9 +1495,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
